--- a/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_predictions.xlsx
+++ b/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/word_level_predictions.xlsx
@@ -2946,574 +2946,574 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D49" t="n">
+      <c r="D49" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>ActiveTrack</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="D50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>speed</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>of</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Obstacle</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Avoidance</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Avoidance</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>8</v>
-      </c>
-      <c r="E57" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>functions</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>functions</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>9</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>normally</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3570,210 +3570,210 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
+      <c r="A61" t="n">
         <v>4</v>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n">
+      <c r="D61" t="n">
         <v>0</v>
       </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
+      <c r="A62" t="n">
         <v>4</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
         </is>
       </c>
-      <c r="C62" s="2" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>entered</t>
         </is>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F62" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G62" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H62" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K62" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L62" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
+      <c r="A63" t="n">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Fixed-Wing</t>
         </is>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K63" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L63" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K63" t="b">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
+      <c r="A64" t="n">
         <v>4</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Mode</t>
         </is>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" t="n">
         <v>3</v>
       </c>
-      <c r="E64" s="2" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L64" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4402,210 +4402,210 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n">
+      <c r="A77" t="n">
         <v>5</v>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" t="n">
         <v>0</v>
       </c>
-      <c r="E77" s="2" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I77" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I77" t="b">
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K77" t="b">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>5</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="D78" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>5</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Attitude</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" t="n">
         <v>2</v>
       </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n">
+      <c r="A80" t="n">
         <v>5</v>
       </c>
-      <c r="B80" s="2" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Aircraft in Attitude mode . Unable to hover . Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" t="n">
         <v>3</v>
       </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6378,314 +6378,314 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>7</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>10</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>7</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>map</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>11</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>7</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" t="n">
         <v>12</v>
       </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>7</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>find</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
+      <c r="D118" t="n">
         <v>13</v>
       </c>
-      <c r="E118" s="2" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F118" s="2" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>7</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Recommended</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>14</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>7</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Zones</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>15</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G122" s="2" t="b">
@@ -6777,11 +6777,11 @@
         </is>
       </c>
       <c r="I122" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K122" s="2" t="b">
@@ -6789,7 +6789,7 @@
       </c>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6829,11 +6829,11 @@
         </is>
       </c>
       <c r="I123" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K123" s="2" t="b">
@@ -6881,11 +6881,11 @@
         </is>
       </c>
       <c r="I124" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K124" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7089,11 +7089,11 @@
         </is>
       </c>
       <c r="I128" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K128" s="2" t="b">
@@ -9342,262 +9342,262 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>10</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>8</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F172" s="2" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>10</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>9</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F173" s="2" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>10</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>10</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F174" s="2" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>10</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>11</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F175" s="2" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>10</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>12</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10798,210 +10798,210 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="n">
+      <c r="A200" t="n">
         <v>11</v>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B200" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
+      <c r="D200" t="n">
         <v>8</v>
       </c>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F200" s="2" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G200" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H200" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K200" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L200" s="2" t="inlineStr">
+      <c r="G200" t="b">
+        <v>1</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I200" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K200" t="b">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="n">
+      <c r="A201" t="n">
         <v>11</v>
       </c>
-      <c r="B201" s="2" t="inlineStr">
+      <c r="B201" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C201" s="2" t="inlineStr">
+      <c r="C201" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D201" s="2" t="n">
+      <c r="D201" t="n">
         <v>9</v>
       </c>
-      <c r="E201" s="2" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F201" s="2" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G201" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H201" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K201" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L201" s="2" t="inlineStr">
+      <c r="G201" t="b">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I201" t="b">
+        <v>1</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K201" t="b">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="n">
+      <c r="A202" t="n">
         <v>11</v>
       </c>
-      <c r="B202" s="2" t="inlineStr">
+      <c r="B202" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C202" s="2" t="inlineStr">
+      <c r="C202" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D202" s="2" t="n">
+      <c r="D202" t="n">
         <v>10</v>
       </c>
-      <c r="E202" s="2" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F202" s="2" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G202" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K202" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L202" s="2" t="inlineStr">
+      <c r="G202" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I202" t="b">
+        <v>1</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K202" t="b">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="n">
+      <c r="A203" t="n">
         <v>11</v>
       </c>
-      <c r="B203" s="2" t="inlineStr">
+      <c r="B203" t="inlineStr">
         <is>
           <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
-      <c r="C203" s="2" t="inlineStr">
+      <c r="C203" t="inlineStr">
         <is>
           <t>30m</t>
         </is>
       </c>
-      <c r="D203" s="2" t="n">
+      <c r="D203" t="n">
         <v>11</v>
       </c>
-      <c r="E203" s="2" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F203" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G203" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H203" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L203" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G203" t="b">
+        <v>1</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I203" t="b">
+        <v>1</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K203" t="b">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14698,470 +14698,470 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="n">
+      <c r="A275" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
         <is>
           <t>Unable</t>
         </is>
       </c>
-      <c r="D275" t="n">
+      <c r="D275" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E275" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="n">
+      <c r="A276" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B276" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C276" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D276" t="n">
+      <c r="D276" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="E276" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>display</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E277" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>display</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>6</v>
-      </c>
-      <c r="E277" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>nearby</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B279" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>manned</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E279" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>nearby</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>7</v>
-      </c>
-      <c r="E278" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D280" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E280" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
+      <c r="F280" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I280" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L280" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B281" s="2" t="inlineStr">
+        <is>
+          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C281" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D281" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E281" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
+      <c r="F281" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I281" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J281" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K281" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L281" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="B282" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>manned</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>8</v>
-      </c>
-      <c r="E279" t="inlineStr">
+      <c r="C282" s="2" t="inlineStr">
+        <is>
+          <t>anti-collision</t>
+        </is>
+      </c>
+      <c r="D282" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E282" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="n">
+      <c r="F282" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I282" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J282" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K282" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L282" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="B283" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D280" t="n">
-        <v>9</v>
-      </c>
-      <c r="E280" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F280" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I280" t="b">
-        <v>1</v>
-      </c>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K280" t="b">
-        <v>1</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="n">
-        <v>17</v>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D281" t="n">
-        <v>10</v>
-      </c>
-      <c r="E281" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F281" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I281" t="b">
-        <v>1</v>
-      </c>
-      <c r="J281" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K281" t="b">
-        <v>1</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="n">
-        <v>17</v>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>anti-collision</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>11</v>
-      </c>
-      <c r="E282" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F282" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G282" t="b">
-        <v>1</v>
-      </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I282" t="b">
-        <v>1</v>
-      </c>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K282" t="b">
-        <v>1</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="n">
-        <v>17</v>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>AirSense communication error . Unable to display nearby manned aircraft and anti-collision warnings . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
+      <c r="C283" s="2" t="inlineStr">
         <is>
           <t>warnings</t>
         </is>
       </c>
-      <c r="D283" t="n">
+      <c r="D283" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E283" t="inlineStr">
+      <c r="E283" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G283" t="b">
-        <v>1</v>
-      </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I283" t="b">
-        <v>1</v>
-      </c>
-      <c r="J283" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K283" t="b">
-        <v>1</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F283" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I283" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J283" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K283" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L283" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -15426,156 +15426,156 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="2" t="n">
+      <c r="A289" t="n">
         <v>18</v>
       </c>
-      <c r="B289" s="2" t="inlineStr">
+      <c r="B289" t="inlineStr">
         <is>
           <t>Altitude Zone nnn .</t>
         </is>
       </c>
-      <c r="C289" s="2" t="inlineStr">
+      <c r="C289" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D289" s="2" t="n">
+      <c r="D289" t="n">
         <v>0</v>
       </c>
-      <c r="E289" s="2" t="inlineStr">
+      <c r="E289" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F289" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G289" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H289" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K289" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L289" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G289" t="b">
+        <v>1</v>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I289" t="b">
+        <v>1</v>
+      </c>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K289" t="b">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="2" t="n">
+      <c r="A290" t="n">
         <v>18</v>
       </c>
-      <c r="B290" s="2" t="inlineStr">
+      <c r="B290" t="inlineStr">
         <is>
           <t>Altitude Zone nnn .</t>
         </is>
       </c>
-      <c r="C290" s="2" t="inlineStr">
+      <c r="C290" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D290" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E290" s="2" t="inlineStr">
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F290" s="2" t="inlineStr">
+      <c r="F290" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G290" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H290" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K290" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L290" s="2" t="inlineStr">
+      <c r="G290" t="b">
+        <v>1</v>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I290" t="b">
+        <v>1</v>
+      </c>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K290" t="b">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="2" t="n">
+      <c r="A291" t="n">
         <v>18</v>
       </c>
-      <c r="B291" s="2" t="inlineStr">
+      <c r="B291" t="inlineStr">
         <is>
           <t>Altitude Zone nnn .</t>
         </is>
       </c>
-      <c r="C291" s="2" t="inlineStr">
+      <c r="C291" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D291" s="2" t="n">
+      <c r="D291" t="n">
         <v>2</v>
       </c>
-      <c r="E291" s="2" t="inlineStr">
+      <c r="E291" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F291" s="2" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G291" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H291" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K291" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L291" s="2" t="inlineStr">
+      <c r="G291" t="b">
+        <v>1</v>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I291" t="b">
+        <v>1</v>
+      </c>
+      <c r="J291" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K291" t="b">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -27750,106 +27750,106 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" s="2" t="n">
+      <c r="A526" t="n">
         <v>41</v>
       </c>
-      <c r="B526" s="2" t="inlineStr">
+      <c r="B526" t="inlineStr">
         <is>
           <t>Cannot track subject : No image . Please retry .</t>
         </is>
       </c>
-      <c r="C526" s="2" t="inlineStr">
+      <c r="C526" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D526" s="2" t="n">
+      <c r="D526" t="n">
         <v>7</v>
       </c>
-      <c r="E526" s="2" t="inlineStr">
+      <c r="E526" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F526" s="2" t="inlineStr">
+      <c r="F526" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G526" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H526" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I526" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J526" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K526" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L526" s="2" t="inlineStr">
+      <c r="G526" t="b">
+        <v>1</v>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I526" t="b">
+        <v>1</v>
+      </c>
+      <c r="J526" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K526" t="b">
+        <v>1</v>
+      </c>
+      <c r="L526" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="2" t="n">
+      <c r="A527" t="n">
         <v>41</v>
       </c>
-      <c r="B527" s="2" t="inlineStr">
+      <c r="B527" t="inlineStr">
         <is>
           <t>Cannot track subject : No image . Please retry .</t>
         </is>
       </c>
-      <c r="C527" s="2" t="inlineStr">
+      <c r="C527" t="inlineStr">
         <is>
           <t>retry</t>
         </is>
       </c>
-      <c r="D527" s="2" t="n">
+      <c r="D527" t="n">
         <v>8</v>
       </c>
-      <c r="E527" s="2" t="inlineStr">
+      <c r="E527" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F527" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G527" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H527" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I527" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J527" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K527" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L527" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G527" t="b">
+        <v>1</v>
+      </c>
+      <c r="H527" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I527" t="b">
+        <v>1</v>
+      </c>
+      <c r="J527" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K527" t="b">
+        <v>1</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -28322,210 +28322,210 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="2" t="n">
+      <c r="A537" t="n">
         <v>42</v>
       </c>
-      <c r="B537" s="2" t="inlineStr">
+      <c r="B537" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
         </is>
       </c>
-      <c r="C537" s="2" t="inlineStr">
+      <c r="C537" t="inlineStr">
         <is>
           <t>Move</t>
         </is>
       </c>
-      <c r="D537" s="2" t="n">
+      <c r="D537" t="n">
         <v>8</v>
       </c>
-      <c r="E537" s="2" t="inlineStr">
+      <c r="E537" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F537" s="2" t="inlineStr">
+      <c r="F537" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G537" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H537" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I537" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J537" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K537" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L537" s="2" t="inlineStr">
+      <c r="G537" t="b">
+        <v>1</v>
+      </c>
+      <c r="H537" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I537" t="b">
+        <v>1</v>
+      </c>
+      <c r="J537" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K537" t="b">
+        <v>1</v>
+      </c>
+      <c r="L537" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="538">
-      <c r="A538" s="2" t="n">
+      <c r="A538" t="n">
         <v>42</v>
       </c>
-      <c r="B538" s="2" t="inlineStr">
+      <c r="B538" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
         </is>
       </c>
-      <c r="C538" s="2" t="inlineStr">
+      <c r="C538" t="inlineStr">
         <is>
           <t>Away</t>
         </is>
       </c>
-      <c r="D538" s="2" t="n">
+      <c r="D538" t="n">
         <v>9</v>
       </c>
-      <c r="E538" s="2" t="inlineStr">
+      <c r="E538" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F538" s="2" t="inlineStr">
+      <c r="F538" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G538" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H538" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I538" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J538" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K538" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L538" s="2" t="inlineStr">
+      <c r="G538" t="b">
+        <v>1</v>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I538" t="b">
+        <v>1</v>
+      </c>
+      <c r="J538" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K538" t="b">
+        <v>1</v>
+      </c>
+      <c r="L538" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="2" t="n">
+      <c r="A539" t="n">
         <v>42</v>
       </c>
-      <c r="B539" s="2" t="inlineStr">
+      <c r="B539" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
         </is>
       </c>
-      <c r="C539" s="2" t="inlineStr">
+      <c r="C539" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D539" s="2" t="n">
+      <c r="D539" t="n">
         <v>10</v>
       </c>
-      <c r="E539" s="2" t="inlineStr">
+      <c r="E539" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F539" s="2" t="inlineStr">
+      <c r="F539" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G539" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H539" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I539" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J539" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K539" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L539" s="2" t="inlineStr">
+      <c r="G539" t="b">
+        <v>1</v>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I539" t="b">
+        <v>1</v>
+      </c>
+      <c r="J539" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K539" t="b">
+        <v>1</v>
+      </c>
+      <c r="L539" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="540">
-      <c r="A540" s="2" t="n">
+      <c r="A540" t="n">
         <v>42</v>
       </c>
-      <c r="B540" s="2" t="inlineStr">
+      <c r="B540" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
         </is>
       </c>
-      <c r="C540" s="2" t="inlineStr">
+      <c r="C540" t="inlineStr">
         <is>
           <t>retry</t>
         </is>
       </c>
-      <c r="D540" s="2" t="n">
+      <c r="D540" t="n">
         <v>11</v>
       </c>
-      <c r="E540" s="2" t="inlineStr">
+      <c r="E540" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F540" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G540" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H540" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I540" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J540" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K540" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L540" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G540" t="b">
+        <v>1</v>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I540" t="b">
+        <v>1</v>
+      </c>
+      <c r="J540" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K540" t="b">
+        <v>1</v>
+      </c>
+      <c r="L540" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -28998,210 +28998,210 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" s="2" t="n">
+      <c r="A550" t="n">
         <v>43</v>
       </c>
-      <c r="B550" s="2" t="inlineStr">
+      <c r="B550" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
         </is>
       </c>
-      <c r="C550" s="2" t="inlineStr">
+      <c r="C550" t="inlineStr">
         <is>
           <t>Get</t>
         </is>
       </c>
-      <c r="D550" s="2" t="n">
+      <c r="D550" t="n">
         <v>8</v>
       </c>
-      <c r="E550" s="2" t="inlineStr">
+      <c r="E550" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F550" s="2" t="inlineStr">
+      <c r="F550" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G550" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H550" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I550" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J550" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K550" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L550" s="2" t="inlineStr">
+      <c r="G550" t="b">
+        <v>1</v>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I550" t="b">
+        <v>1</v>
+      </c>
+      <c r="J550" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K550" t="b">
+        <v>1</v>
+      </c>
+      <c r="L550" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="551">
-      <c r="A551" s="2" t="n">
+      <c r="A551" t="n">
         <v>43</v>
       </c>
-      <c r="B551" s="2" t="inlineStr">
+      <c r="B551" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
         </is>
       </c>
-      <c r="C551" s="2" t="inlineStr">
+      <c r="C551" t="inlineStr">
         <is>
           <t>Closer</t>
         </is>
       </c>
-      <c r="D551" s="2" t="n">
+      <c r="D551" t="n">
         <v>9</v>
       </c>
-      <c r="E551" s="2" t="inlineStr">
+      <c r="E551" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F551" s="2" t="inlineStr">
+      <c r="F551" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G551" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H551" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I551" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J551" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K551" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L551" s="2" t="inlineStr">
+      <c r="G551" t="b">
+        <v>1</v>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I551" t="b">
+        <v>1</v>
+      </c>
+      <c r="J551" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K551" t="b">
+        <v>1</v>
+      </c>
+      <c r="L551" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="2" t="n">
+      <c r="A552" t="n">
         <v>43</v>
       </c>
-      <c r="B552" s="2" t="inlineStr">
+      <c r="B552" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
         </is>
       </c>
-      <c r="C552" s="2" t="inlineStr">
+      <c r="C552" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D552" s="2" t="n">
+      <c r="D552" t="n">
         <v>10</v>
       </c>
-      <c r="E552" s="2" t="inlineStr">
+      <c r="E552" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F552" s="2" t="inlineStr">
+      <c r="F552" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G552" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H552" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I552" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J552" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K552" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L552" s="2" t="inlineStr">
+      <c r="G552" t="b">
+        <v>1</v>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I552" t="b">
+        <v>1</v>
+      </c>
+      <c r="J552" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K552" t="b">
+        <v>1</v>
+      </c>
+      <c r="L552" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="553">
-      <c r="A553" s="2" t="n">
+      <c r="A553" t="n">
         <v>43</v>
       </c>
-      <c r="B553" s="2" t="inlineStr">
+      <c r="B553" t="inlineStr">
         <is>
           <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
         </is>
       </c>
-      <c r="C553" s="2" t="inlineStr">
+      <c r="C553" t="inlineStr">
         <is>
           <t>retry</t>
         </is>
       </c>
-      <c r="D553" s="2" t="n">
+      <c r="D553" t="n">
         <v>11</v>
       </c>
-      <c r="E553" s="2" t="inlineStr">
+      <c r="E553" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F553" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G553" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H553" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I553" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J553" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K553" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L553" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G553" t="b">
+        <v>1</v>
+      </c>
+      <c r="H553" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I553" t="b">
+        <v>1</v>
+      </c>
+      <c r="J553" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K553" t="b">
+        <v>1</v>
+      </c>
+      <c r="L553" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -44130,52 +44130,52 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" s="2" t="n">
+      <c r="A841" t="n">
         <v>77</v>
       </c>
-      <c r="B841" s="2" t="inlineStr">
+      <c r="B841" t="inlineStr">
         <is>
           <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
         </is>
       </c>
-      <c r="C841" s="2" t="inlineStr">
+      <c r="C841" t="inlineStr">
         <is>
           <t>Error:</t>
         </is>
       </c>
-      <c r="D841" s="2" t="n">
+      <c r="D841" t="n">
         <v>0</v>
       </c>
-      <c r="E841" s="2" t="inlineStr">
+      <c r="E841" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F841" s="2" t="inlineStr">
+      <c r="F841" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G841" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H841" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I841" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J841" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K841" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L841" s="2" t="inlineStr">
+      <c r="G841" t="b">
+        <v>1</v>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I841" t="b">
+        <v>1</v>
+      </c>
+      <c r="J841" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K841" t="b">
+        <v>1</v>
+      </c>
+      <c r="L841" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -44205,7 +44205,7 @@
       </c>
       <c r="F842" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G842" t="b">
@@ -44229,7 +44229,7 @@
       </c>
       <c r="L842" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -48602,210 +48602,210 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="n">
+      <c r="A927" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B927" t="inlineStr">
+      <c r="B927" s="2" t="inlineStr">
         <is>
           <t>Flight control mode error , cannot start recording QuickShot .</t>
         </is>
       </c>
-      <c r="C927" t="inlineStr">
+      <c r="C927" s="2" t="inlineStr">
         <is>
           <t>cannot</t>
         </is>
       </c>
-      <c r="D927" t="n">
+      <c r="D927" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E927" t="inlineStr">
+      <c r="E927" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F927" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G927" t="b">
-        <v>1</v>
-      </c>
-      <c r="H927" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I927" t="b">
-        <v>1</v>
-      </c>
-      <c r="J927" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K927" t="b">
-        <v>1</v>
-      </c>
-      <c r="L927" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F927" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G927" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H927" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I927" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J927" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K927" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L927" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="n">
+      <c r="A928" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B928" t="inlineStr">
+      <c r="B928" s="2" t="inlineStr">
         <is>
           <t>Flight control mode error , cannot start recording QuickShot .</t>
         </is>
       </c>
-      <c r="C928" t="inlineStr">
+      <c r="C928" s="2" t="inlineStr">
         <is>
           <t>start</t>
         </is>
       </c>
-      <c r="D928" t="n">
+      <c r="D928" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E928" t="inlineStr">
+      <c r="E928" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F928" t="inlineStr">
+      <c r="F928" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G928" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H928" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I928" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J928" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K928" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L928" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B929" s="2" t="inlineStr">
+        <is>
+          <t>Flight control mode error , cannot start recording QuickShot .</t>
+        </is>
+      </c>
+      <c r="C929" s="2" t="inlineStr">
+        <is>
+          <t>recording</t>
+        </is>
+      </c>
+      <c r="D929" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E929" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G928" t="b">
-        <v>1</v>
-      </c>
-      <c r="H928" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I928" t="b">
-        <v>1</v>
-      </c>
-      <c r="J928" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K928" t="b">
-        <v>1</v>
-      </c>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="929">
-      <c r="A929" t="n">
+      <c r="F929" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G929" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H929" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I929" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J929" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K929" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L929" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="B929" t="inlineStr">
+      <c r="B930" s="2" t="inlineStr">
         <is>
           <t>Flight control mode error , cannot start recording QuickShot .</t>
         </is>
       </c>
-      <c r="C929" t="inlineStr">
-        <is>
-          <t>recording</t>
-        </is>
-      </c>
-      <c r="D929" t="n">
-        <v>7</v>
-      </c>
-      <c r="E929" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G929" t="b">
-        <v>1</v>
-      </c>
-      <c r="H929" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I929" t="b">
-        <v>1</v>
-      </c>
-      <c r="J929" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K929" t="b">
-        <v>1</v>
-      </c>
-      <c r="L929" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="930">
-      <c r="A930" t="n">
-        <v>84</v>
-      </c>
-      <c r="B930" t="inlineStr">
-        <is>
-          <t>Flight control mode error , cannot start recording QuickShot .</t>
-        </is>
-      </c>
-      <c r="C930" t="inlineStr">
+      <c r="C930" s="2" t="inlineStr">
         <is>
           <t>QuickShot</t>
         </is>
       </c>
-      <c r="D930" t="n">
+      <c r="D930" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E930" t="inlineStr">
+      <c r="E930" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F930" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G930" t="b">
-        <v>1</v>
-      </c>
-      <c r="H930" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I930" t="b">
-        <v>1</v>
-      </c>
-      <c r="J930" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K930" t="b">
-        <v>1</v>
-      </c>
-      <c r="L930" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F930" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G930" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H930" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I930" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J930" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K930" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L930" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -50734,728 +50734,728 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" s="2" t="n">
+      <c r="A968" t="n">
         <v>89</v>
       </c>
-      <c r="B968" s="2" t="inlineStr">
+      <c r="B968" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C968" s="2" t="inlineStr">
+      <c r="C968" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D968" s="2" t="n">
+      <c r="D968" t="n">
         <v>0</v>
       </c>
-      <c r="E968" s="2" t="inlineStr">
+      <c r="E968" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F968" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G968" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H968" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I968" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J968" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K968" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L968" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F968" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G968" t="b">
+        <v>1</v>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I968" t="b">
+        <v>1</v>
+      </c>
+      <c r="J968" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K968" t="b">
+        <v>1</v>
+      </c>
+      <c r="L968" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="969">
-      <c r="A969" s="2" t="n">
+      <c r="A969" t="n">
         <v>89</v>
       </c>
-      <c r="B969" s="2" t="inlineStr">
+      <c r="B969" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C969" s="2" t="inlineStr">
+      <c r="C969" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D969" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E969" s="2" t="inlineStr">
+      <c r="D969" t="n">
+        <v>1</v>
+      </c>
+      <c r="E969" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F969" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G969" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H969" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I969" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J969" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K969" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L969" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F969" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G969" t="b">
+        <v>1</v>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I969" t="b">
+        <v>1</v>
+      </c>
+      <c r="J969" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K969" t="b">
+        <v>1</v>
+      </c>
+      <c r="L969" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="970">
-      <c r="A970" s="2" t="n">
+      <c r="A970" t="n">
         <v>89</v>
       </c>
-      <c r="B970" s="2" t="inlineStr">
+      <c r="B970" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C970" s="2" t="inlineStr">
+      <c r="C970" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D970" s="2" t="n">
+      <c r="D970" t="n">
         <v>2</v>
       </c>
-      <c r="E970" s="2" t="inlineStr">
+      <c r="E970" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F970" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G970" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H970" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I970" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J970" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K970" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L970" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F970" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G970" t="b">
+        <v>1</v>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I970" t="b">
+        <v>1</v>
+      </c>
+      <c r="J970" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K970" t="b">
+        <v>1</v>
+      </c>
+      <c r="L970" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="971">
-      <c r="A971" s="2" t="n">
+      <c r="A971" t="n">
         <v>89</v>
       </c>
-      <c r="B971" s="2" t="inlineStr">
+      <c r="B971" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C971" s="2" t="inlineStr">
+      <c r="C971" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D971" s="2" t="n">
+      <c r="D971" t="n">
         <v>3</v>
       </c>
-      <c r="E971" s="2" t="inlineStr">
+      <c r="E971" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F971" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G971" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H971" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I971" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J971" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K971" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L971" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F971" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G971" t="b">
+        <v>1</v>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I971" t="b">
+        <v>1</v>
+      </c>
+      <c r="J971" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K971" t="b">
+        <v>1</v>
+      </c>
+      <c r="L971" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="972">
-      <c r="A972" s="2" t="n">
+      <c r="A972" t="n">
         <v>89</v>
       </c>
-      <c r="B972" s="2" t="inlineStr">
+      <c r="B972" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C972" s="2" t="inlineStr">
+      <c r="C972" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D972" s="2" t="n">
+      <c r="D972" t="n">
         <v>4</v>
       </c>
-      <c r="E972" s="2" t="inlineStr">
+      <c r="E972" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F972" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G972" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H972" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I972" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J972" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K972" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L972" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F972" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G972" t="b">
+        <v>1</v>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I972" t="b">
+        <v>1</v>
+      </c>
+      <c r="J972" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K972" t="b">
+        <v>1</v>
+      </c>
+      <c r="L972" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="973">
-      <c r="A973" s="2" t="n">
+      <c r="A973" t="n">
         <v>89</v>
       </c>
-      <c r="B973" s="2" t="inlineStr">
+      <c r="B973" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C973" s="2" t="inlineStr">
+      <c r="C973" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D973" s="2" t="n">
+      <c r="D973" t="n">
         <v>5</v>
       </c>
-      <c r="E973" s="2" t="inlineStr">
+      <c r="E973" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F973" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G973" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H973" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I973" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J973" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K973" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L973" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F973" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G973" t="b">
+        <v>1</v>
+      </c>
+      <c r="H973" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I973" t="b">
+        <v>1</v>
+      </c>
+      <c r="J973" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K973" t="b">
+        <v>1</v>
+      </c>
+      <c r="L973" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="974">
-      <c r="A974" s="2" t="n">
+      <c r="A974" t="n">
         <v>89</v>
       </c>
-      <c r="B974" s="2" t="inlineStr">
+      <c r="B974" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C974" s="2" t="inlineStr">
+      <c r="C974" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D974" s="2" t="n">
+      <c r="D974" t="n">
         <v>6</v>
       </c>
-      <c r="E974" s="2" t="inlineStr">
+      <c r="E974" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F974" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G974" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H974" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I974" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J974" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K974" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L974" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F974" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G974" t="b">
+        <v>1</v>
+      </c>
+      <c r="H974" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I974" t="b">
+        <v>1</v>
+      </c>
+      <c r="J974" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K974" t="b">
+        <v>1</v>
+      </c>
+      <c r="L974" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="975">
-      <c r="A975" s="2" t="n">
+      <c r="A975" t="n">
         <v>89</v>
       </c>
-      <c r="B975" s="2" t="inlineStr">
+      <c r="B975" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C975" s="2" t="inlineStr">
+      <c r="C975" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D975" s="2" t="n">
+      <c r="D975" t="n">
         <v>7</v>
       </c>
-      <c r="E975" s="2" t="inlineStr">
+      <c r="E975" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F975" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G975" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H975" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I975" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J975" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K975" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L975" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F975" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G975" t="b">
+        <v>1</v>
+      </c>
+      <c r="H975" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I975" t="b">
+        <v>1</v>
+      </c>
+      <c r="J975" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K975" t="b">
+        <v>1</v>
+      </c>
+      <c r="L975" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="976">
-      <c r="A976" s="2" t="n">
+      <c r="A976" t="n">
         <v>89</v>
       </c>
-      <c r="B976" s="2" t="inlineStr">
+      <c r="B976" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C976" s="2" t="inlineStr">
+      <c r="C976" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D976" s="2" t="n">
+      <c r="D976" t="n">
         <v>8</v>
       </c>
-      <c r="E976" s="2" t="inlineStr">
+      <c r="E976" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F976" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G976" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H976" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I976" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J976" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K976" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L976" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F976" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G976" t="b">
+        <v>1</v>
+      </c>
+      <c r="H976" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I976" t="b">
+        <v>1</v>
+      </c>
+      <c r="J976" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K976" t="b">
+        <v>1</v>
+      </c>
+      <c r="L976" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="977">
-      <c r="A977" s="2" t="n">
+      <c r="A977" t="n">
         <v>89</v>
       </c>
-      <c r="B977" s="2" t="inlineStr">
+      <c r="B977" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C977" s="2" t="inlineStr">
+      <c r="C977" t="inlineStr">
         <is>
           <t>Airspace</t>
         </is>
       </c>
-      <c r="D977" s="2" t="n">
+      <c r="D977" t="n">
         <v>9</v>
       </c>
-      <c r="E977" s="2" t="inlineStr">
+      <c r="E977" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F977" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G977" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H977" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I977" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J977" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K977" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L977" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F977" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G977" t="b">
+        <v>1</v>
+      </c>
+      <c r="H977" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I977" t="b">
+        <v>1</v>
+      </c>
+      <c r="J977" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K977" t="b">
+        <v>1</v>
+      </c>
+      <c r="L977" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="978">
-      <c r="A978" s="2" t="n">
+      <c r="A978" t="n">
         <v>89</v>
       </c>
-      <c r="B978" s="2" t="inlineStr">
+      <c r="B978" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C978" s="2" t="inlineStr">
+      <c r="C978" t="inlineStr">
         <is>
           <t>Unpaved</t>
         </is>
       </c>
-      <c r="D978" s="2" t="n">
+      <c r="D978" t="n">
         <v>10</v>
       </c>
-      <c r="E978" s="2" t="inlineStr">
+      <c r="E978" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F978" s="2" t="inlineStr">
+      <c r="F978" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G978" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H978" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I978" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J978" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K978" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L978" s="2" t="inlineStr">
+      <c r="G978" t="b">
+        <v>1</v>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I978" t="b">
+        <v>1</v>
+      </c>
+      <c r="J978" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K978" t="b">
+        <v>1</v>
+      </c>
+      <c r="L978" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="979">
-      <c r="A979" s="2" t="n">
+      <c r="A979" t="n">
         <v>89</v>
       </c>
-      <c r="B979" s="2" t="inlineStr">
+      <c r="B979" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C979" s="2" t="inlineStr">
+      <c r="C979" t="inlineStr">
         <is>
           <t>Airports</t>
         </is>
       </c>
-      <c r="D979" s="2" t="n">
+      <c r="D979" t="n">
         <v>11</v>
       </c>
-      <c r="E979" s="2" t="inlineStr">
+      <c r="E979" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F979" s="2" t="inlineStr">
+      <c r="F979" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G979" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H979" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I979" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J979" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K979" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L979" s="2" t="inlineStr">
+      <c r="G979" t="b">
+        <v>1</v>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I979" t="b">
+        <v>1</v>
+      </c>
+      <c r="J979" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K979" t="b">
+        <v>1</v>
+      </c>
+      <c r="L979" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="980">
-      <c r="A980" s="2" t="n">
+      <c r="A980" t="n">
         <v>89</v>
       </c>
-      <c r="B980" s="2" t="inlineStr">
+      <c r="B980" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C980" s="2" t="inlineStr">
+      <c r="C980" t="inlineStr">
         <is>
           <t>Power</t>
         </is>
       </c>
-      <c r="D980" s="2" t="n">
+      <c r="D980" t="n">
         <v>12</v>
       </c>
-      <c r="E980" s="2" t="inlineStr">
+      <c r="E980" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F980" s="2" t="inlineStr">
+      <c r="F980" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G980" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H980" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I980" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J980" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K980" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L980" s="2" t="inlineStr">
+      <c r="G980" t="b">
+        <v>1</v>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I980" t="b">
+        <v>1</v>
+      </c>
+      <c r="J980" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K980" t="b">
+        <v>1</v>
+      </c>
+      <c r="L980" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="981">
-      <c r="A981" s="2" t="n">
+      <c r="A981" t="n">
         <v>89</v>
       </c>
-      <c r="B981" s="2" t="inlineStr">
+      <c r="B981" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C981" s="2" t="inlineStr">
+      <c r="C981" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D981" s="2" t="n">
+      <c r="D981" t="n">
         <v>13</v>
       </c>
-      <c r="E981" s="2" t="inlineStr">
+      <c r="E981" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F981" s="2" t="inlineStr">
+      <c r="F981" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G981" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H981" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I981" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J981" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K981" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L981" s="2" t="inlineStr">
+      <c r="G981" t="b">
+        <v>1</v>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I981" t="b">
+        <v>1</v>
+      </c>
+      <c r="J981" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K981" t="b">
+        <v>1</v>
+      </c>
+      <c r="L981" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -53022,158 +53022,158 @@
       </c>
     </row>
     <row r="1012">
-      <c r="A1012" s="2" t="n">
+      <c r="A1012" t="n">
         <v>94</v>
       </c>
-      <c r="B1012" s="2" t="inlineStr">
+      <c r="B1012" t="inlineStr">
         <is>
           <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
         </is>
       </c>
-      <c r="C1012" s="2" t="inlineStr">
+      <c r="C1012" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D1012" s="2" t="n">
+      <c r="D1012" t="n">
         <v>4</v>
       </c>
-      <c r="E1012" s="2" t="inlineStr">
+      <c r="E1012" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1012" s="2" t="inlineStr">
+      <c r="F1012" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1012" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1012" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1012" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1012" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1012" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1012" s="2" t="inlineStr">
+      <c r="G1012" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1012" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1012" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1012" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1012" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1012" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1013">
-      <c r="A1013" s="2" t="n">
+      <c r="A1013" t="n">
         <v>94</v>
       </c>
-      <c r="B1013" s="2" t="inlineStr">
+      <c r="B1013" t="inlineStr">
         <is>
           <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
         </is>
       </c>
-      <c r="C1013" s="2" t="inlineStr">
+      <c r="C1013" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D1013" s="2" t="n">
+      <c r="D1013" t="n">
         <v>5</v>
       </c>
-      <c r="E1013" s="2" t="inlineStr">
+      <c r="E1013" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1013" s="2" t="inlineStr">
+      <c r="F1013" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1013" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1013" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1013" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1013" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1013" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1013" s="2" t="inlineStr">
+      <c r="G1013" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1013" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1013" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1013" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1013" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1013" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1014">
-      <c r="A1014" s="2" t="n">
+      <c r="A1014" t="n">
         <v>94</v>
       </c>
-      <c r="B1014" s="2" t="inlineStr">
+      <c r="B1014" t="inlineStr">
         <is>
           <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
         </is>
       </c>
-      <c r="C1014" s="2" t="inlineStr">
+      <c r="C1014" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D1014" s="2" t="n">
+      <c r="D1014" t="n">
         <v>6</v>
       </c>
-      <c r="E1014" s="2" t="inlineStr">
+      <c r="E1014" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1014" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1014" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1014" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1014" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1014" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1014" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1014" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1014" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1014" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1014" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1014" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1014" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1014" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1014" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -58378,210 +58378,210 @@
       </c>
     </row>
     <row r="1115">
-      <c r="A1115" s="2" t="n">
+      <c r="A1115" t="n">
         <v>100</v>
       </c>
-      <c r="B1115" s="2" t="inlineStr">
+      <c r="B1115" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1115" s="2" t="inlineStr">
+      <c r="C1115" t="inlineStr">
         <is>
           <t>Return-to-Home</t>
         </is>
       </c>
-      <c r="D1115" s="2" t="n">
+      <c r="D1115" t="n">
         <v>4</v>
       </c>
-      <c r="E1115" s="2" t="inlineStr">
+      <c r="E1115" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1115" s="2" t="inlineStr">
+      <c r="F1115" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1115" s="2" t="inlineStr">
+      <c r="G1115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1116">
-      <c r="A1116" s="2" t="n">
+      <c r="A1116" t="n">
         <v>100</v>
       </c>
-      <c r="B1116" s="2" t="inlineStr">
+      <c r="B1116" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1116" s="2" t="inlineStr">
+      <c r="C1116" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D1116" s="2" t="n">
+      <c r="D1116" t="n">
         <v>5</v>
       </c>
-      <c r="E1116" s="2" t="inlineStr">
+      <c r="E1116" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1116" s="2" t="inlineStr">
+      <c r="F1116" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1116" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1116" s="2" t="inlineStr">
+      <c r="G1116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1116" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1116" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1117">
-      <c r="A1117" s="2" t="n">
+      <c r="A1117" t="n">
         <v>100</v>
       </c>
-      <c r="B1117" s="2" t="inlineStr">
+      <c r="B1117" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1117" s="2" t="inlineStr">
+      <c r="C1117" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D1117" s="2" t="n">
+      <c r="D1117" t="n">
         <v>6</v>
       </c>
-      <c r="E1117" s="2" t="inlineStr">
+      <c r="E1117" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1117" s="2" t="inlineStr">
+      <c r="F1117" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1117" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1117" s="2" t="inlineStr">
+      <c r="G1117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1117" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1118">
-      <c r="A1118" s="2" t="n">
+      <c r="A1118" t="n">
         <v>100</v>
       </c>
-      <c r="B1118" s="2" t="inlineStr">
+      <c r="B1118" t="inlineStr">
         <is>
           <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1118" s="2" t="inlineStr">
+      <c r="C1118" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D1118" s="2" t="n">
+      <c r="D1118" t="n">
         <v>7</v>
       </c>
-      <c r="E1118" s="2" t="inlineStr">
+      <c r="E1118" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1118" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1118" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1118" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1118" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1118" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -58846,106 +58846,106 @@
       </c>
     </row>
     <row r="1124">
-      <c r="A1124" s="2" t="n">
+      <c r="A1124" t="n">
         <v>101</v>
       </c>
-      <c r="B1124" s="2" t="inlineStr">
+      <c r="B1124" t="inlineStr">
         <is>
           <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C1124" s="2" t="inlineStr">
+      <c r="C1124" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D1124" s="2" t="n">
+      <c r="D1124" t="n">
         <v>4</v>
       </c>
-      <c r="E1124" s="2" t="inlineStr">
+      <c r="E1124" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1124" s="2" t="inlineStr">
+      <c r="F1124" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1124" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1124" s="2" t="inlineStr">
+      <c r="G1124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1124" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1124" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" s="2" t="n">
+      <c r="A1125" t="n">
         <v>101</v>
       </c>
-      <c r="B1125" s="2" t="inlineStr">
+      <c r="B1125" t="inlineStr">
         <is>
           <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C1125" s="2" t="inlineStr">
+      <c r="C1125" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D1125" s="2" t="n">
+      <c r="D1125" t="n">
         <v>5</v>
       </c>
-      <c r="E1125" s="2" t="inlineStr">
+      <c r="E1125" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1125" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1125" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1125" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1125" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1125" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1125" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1125" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1125" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1125" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1125" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1125" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1125" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -59210,106 +59210,106 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" s="2" t="n">
+      <c r="A1131" t="n">
         <v>102</v>
       </c>
-      <c r="B1131" s="2" t="inlineStr">
+      <c r="B1131" t="inlineStr">
         <is>
           <t>IMU not calibrated . Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C1131" s="2" t="inlineStr">
+      <c r="C1131" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D1131" s="2" t="n">
+      <c r="D1131" t="n">
         <v>4</v>
       </c>
-      <c r="E1131" s="2" t="inlineStr">
+      <c r="E1131" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1131" s="2" t="inlineStr">
+      <c r="F1131" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1131" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1131" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1131" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1131" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1131" s="2" t="inlineStr">
+      <c r="G1131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1131" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1131" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1131" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1132">
-      <c r="A1132" s="2" t="n">
+      <c r="A1132" t="n">
         <v>102</v>
       </c>
-      <c r="B1132" s="2" t="inlineStr">
+      <c r="B1132" t="inlineStr">
         <is>
           <t>IMU not calibrated . Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C1132" s="2" t="inlineStr">
+      <c r="C1132" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D1132" s="2" t="n">
+      <c r="D1132" t="n">
         <v>5</v>
       </c>
-      <c r="E1132" s="2" t="inlineStr">
+      <c r="E1132" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1132" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1132" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1132" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1132" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1132" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1132" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1132" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1132" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1132" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1132" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -74862,210 +74862,210 @@
       </c>
     </row>
     <row r="1432">
-      <c r="A1432" s="2" t="n">
+      <c r="A1432" t="n">
         <v>134</v>
       </c>
-      <c r="B1432" s="2" t="inlineStr">
+      <c r="B1432" t="inlineStr">
         <is>
           <t>Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1432" s="2" t="inlineStr">
+      <c r="C1432" t="inlineStr">
         <is>
           <t>Return-to-Home</t>
         </is>
       </c>
-      <c r="D1432" s="2" t="n">
+      <c r="D1432" t="n">
         <v>0</v>
       </c>
-      <c r="E1432" s="2" t="inlineStr">
+      <c r="E1432" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1432" s="2" t="inlineStr">
+      <c r="F1432" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1432" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1432" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1432" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1432" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1432" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1432" s="2" t="inlineStr">
+      <c r="G1432" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1432" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1432" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1432" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1432" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1432" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1433">
-      <c r="A1433" s="2" t="n">
+      <c r="A1433" t="n">
         <v>134</v>
       </c>
-      <c r="B1433" s="2" t="inlineStr">
+      <c r="B1433" t="inlineStr">
         <is>
           <t>Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1433" s="2" t="inlineStr">
+      <c r="C1433" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D1433" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1433" s="2" t="inlineStr">
+      <c r="D1433" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1433" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1433" s="2" t="inlineStr">
+      <c r="F1433" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1433" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1433" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1433" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1433" s="2" t="inlineStr">
+      <c r="G1433" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1433" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1433" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1433" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1433" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1433" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1434">
-      <c r="A1434" s="2" t="n">
+      <c r="A1434" t="n">
         <v>134</v>
       </c>
-      <c r="B1434" s="2" t="inlineStr">
+      <c r="B1434" t="inlineStr">
         <is>
           <t>Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1434" s="2" t="inlineStr">
+      <c r="C1434" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D1434" s="2" t="n">
+      <c r="D1434" t="n">
         <v>2</v>
       </c>
-      <c r="E1434" s="2" t="inlineStr">
+      <c r="E1434" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1434" s="2" t="inlineStr">
+      <c r="F1434" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1434" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1434" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1434" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1434" s="2" t="inlineStr">
+      <c r="G1434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1434" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1434" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1435">
-      <c r="A1435" s="2" t="n">
+      <c r="A1435" t="n">
         <v>134</v>
       </c>
-      <c r="B1435" s="2" t="inlineStr">
+      <c r="B1435" t="inlineStr">
         <is>
           <t>Return-to-Home Altitude : 98FT .</t>
         </is>
       </c>
-      <c r="C1435" s="2" t="inlineStr">
+      <c r="C1435" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D1435" s="2" t="n">
+      <c r="D1435" t="n">
         <v>3</v>
       </c>
-      <c r="E1435" s="2" t="inlineStr">
+      <c r="E1435" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1435" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1435" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1435" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1435" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1435" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1435" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -75590,106 +75590,106 @@
       </c>
     </row>
     <row r="1446">
-      <c r="A1446" s="2" t="n">
+      <c r="A1446" t="n">
         <v>136</v>
       </c>
-      <c r="B1446" s="2" t="inlineStr">
+      <c r="B1446" t="inlineStr">
         <is>
           <t>RTH : Ascending to RTH altitude .</t>
         </is>
       </c>
-      <c r="C1446" s="2" t="inlineStr">
+      <c r="C1446" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D1446" s="2" t="n">
+      <c r="D1446" t="n">
         <v>0</v>
       </c>
-      <c r="E1446" s="2" t="inlineStr">
+      <c r="E1446" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1446" s="2" t="inlineStr">
+      <c r="F1446" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1446" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1446" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1446" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1446" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1446" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1446" s="2" t="inlineStr">
+      <c r="G1446" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1446" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1446" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1446" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1446" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1446" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1447">
-      <c r="A1447" s="2" t="n">
+      <c r="A1447" t="n">
         <v>136</v>
       </c>
-      <c r="B1447" s="2" t="inlineStr">
+      <c r="B1447" t="inlineStr">
         <is>
           <t>RTH : Ascending to RTH altitude .</t>
         </is>
       </c>
-      <c r="C1447" s="2" t="inlineStr">
+      <c r="C1447" t="inlineStr">
         <is>
           <t>:</t>
         </is>
       </c>
-      <c r="D1447" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1447" s="2" t="inlineStr">
+      <c r="D1447" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1447" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1447" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G1447" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1447" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1447" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1447" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1447" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="F1447" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1447" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1447" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1447" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1447" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1447" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1447" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -75717,7 +75717,7 @@
       </c>
       <c r="F1448" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G1448" t="b">
@@ -75741,7 +75741,7 @@
       </c>
       <c r="L1448" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -76029,7 +76029,7 @@
       </c>
       <c r="F1454" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G1454" s="2" t="b">
@@ -76093,11 +76093,11 @@
         </is>
       </c>
       <c r="I1455" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1455" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K1455" s="2" t="b">
@@ -78190,106 +78190,106 @@
       </c>
     </row>
     <row r="1496">
-      <c r="A1496" t="n">
+      <c r="A1496" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="B1496" t="inlineStr">
+      <c r="B1496" s="2" t="inlineStr">
         <is>
           <t>SD card speed low . Change card .</t>
         </is>
       </c>
-      <c r="C1496" t="inlineStr">
+      <c r="C1496" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D1496" t="n">
+      <c r="D1496" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E1496" t="inlineStr">
+      <c r="E1496" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1496" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G1496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1496" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1496" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F1496" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="1497">
-      <c r="A1497" t="n">
+      <c r="A1497" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="B1497" t="inlineStr">
+      <c r="B1497" s="2" t="inlineStr">
         <is>
           <t>SD card speed low . Change card .</t>
         </is>
       </c>
-      <c r="C1497" t="inlineStr">
+      <c r="C1497" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D1497" t="n">
+      <c r="D1497" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E1497" t="inlineStr">
+      <c r="E1497" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1497" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1497" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1497" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1497" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1497" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1497" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1497" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F1497" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1497" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1497" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1497" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1497" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1497" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1497" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -82662,366 +82662,366 @@
       </c>
     </row>
     <row r="1582">
-      <c r="A1582" s="2" t="n">
+      <c r="A1582" t="n">
         <v>150</v>
       </c>
-      <c r="B1582" s="2" t="inlineStr">
+      <c r="B1582" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1582" s="2" t="inlineStr">
+      <c r="C1582" t="inlineStr">
         <is>
           <t>Use</t>
         </is>
       </c>
-      <c r="D1582" s="2" t="n">
+      <c r="D1582" t="n">
         <v>6</v>
       </c>
-      <c r="E1582" s="2" t="inlineStr">
+      <c r="E1582" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F1582" s="2" t="inlineStr">
+      <c r="F1582" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G1582" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1582" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1582" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1582" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1582" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1582" s="2" t="inlineStr">
+      <c r="G1582" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1582" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1582" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1582" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1582" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1582" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1583">
-      <c r="A1583" s="2" t="n">
+      <c r="A1583" t="n">
         <v>150</v>
       </c>
-      <c r="B1583" s="2" t="inlineStr">
+      <c r="B1583" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1583" s="2" t="inlineStr">
+      <c r="C1583" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D1583" s="2" t="n">
+      <c r="D1583" t="n">
         <v>7</v>
       </c>
-      <c r="E1583" s="2" t="inlineStr">
+      <c r="E1583" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1583" s="2" t="inlineStr">
+      <c r="F1583" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1583" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1583" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1583" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1583" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1583" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1583" s="2" t="inlineStr">
+      <c r="G1583" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1583" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1583" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1583" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1583" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1583" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1584">
-      <c r="A1584" s="2" t="n">
+      <c r="A1584" t="n">
         <v>150</v>
       </c>
-      <c r="B1584" s="2" t="inlineStr">
+      <c r="B1584" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1584" s="2" t="inlineStr">
+      <c r="C1584" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="D1584" s="2" t="n">
+      <c r="D1584" t="n">
         <v>8</v>
       </c>
-      <c r="E1584" s="2" t="inlineStr">
+      <c r="E1584" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1584" s="2" t="inlineStr">
+      <c r="F1584" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1584" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1584" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1584" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1584" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1584" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1584" s="2" t="inlineStr">
+      <c r="G1584" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1584" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1584" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1584" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1584" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1584" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1585">
-      <c r="A1585" s="2" t="n">
+      <c r="A1585" t="n">
         <v>150</v>
       </c>
-      <c r="B1585" s="2" t="inlineStr">
+      <c r="B1585" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1585" s="2" t="inlineStr">
+      <c r="C1585" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D1585" s="2" t="n">
+      <c r="D1585" t="n">
         <v>9</v>
       </c>
-      <c r="E1585" s="2" t="inlineStr">
+      <c r="E1585" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1585" s="2" t="inlineStr">
+      <c r="F1585" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1585" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1585" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1585" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1585" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1585" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1585" s="2" t="inlineStr">
+      <c r="G1585" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1585" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1585" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1585" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1585" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1585" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1586">
-      <c r="A1586" s="2" t="n">
+      <c r="A1586" t="n">
         <v>150</v>
       </c>
-      <c r="B1586" s="2" t="inlineStr">
+      <c r="B1586" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1586" s="2" t="inlineStr">
+      <c r="C1586" t="inlineStr">
         <is>
           <t>control</t>
         </is>
       </c>
-      <c r="D1586" s="2" t="n">
+      <c r="D1586" t="n">
         <v>10</v>
       </c>
-      <c r="E1586" s="2" t="inlineStr">
+      <c r="E1586" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1586" s="2" t="inlineStr">
+      <c r="F1586" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1586" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1586" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1586" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1586" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1586" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1586" s="2" t="inlineStr">
+      <c r="G1586" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1586" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1586" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1586" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1586" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1586" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1587">
-      <c r="A1587" s="2" t="n">
+      <c r="A1587" t="n">
         <v>150</v>
       </c>
-      <c r="B1587" s="2" t="inlineStr">
+      <c r="B1587" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1587" s="2" t="inlineStr">
+      <c r="C1587" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D1587" s="2" t="n">
+      <c r="D1587" t="n">
         <v>11</v>
       </c>
-      <c r="E1587" s="2" t="inlineStr">
+      <c r="E1587" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="F1587" s="2" t="inlineStr">
+      <c r="F1587" t="inlineStr">
         <is>
           <t>I-NonEvent</t>
         </is>
       </c>
-      <c r="G1587" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1587" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1587" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1587" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1587" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1587" s="2" t="inlineStr">
+      <c r="G1587" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1587" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1587" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1587" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1587" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1588">
-      <c r="A1588" s="2" t="n">
+      <c r="A1588" t="n">
         <v>150</v>
       </c>
-      <c r="B1588" s="2" t="inlineStr">
+      <c r="B1588" t="inlineStr">
         <is>
           <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
         </is>
       </c>
-      <c r="C1588" s="2" t="inlineStr">
+      <c r="C1588" t="inlineStr">
         <is>
           <t>yaw</t>
         </is>
       </c>
-      <c r="D1588" s="2" t="n">
+      <c r="D1588" t="n">
         <v>12</v>
       </c>
-      <c r="E1588" s="2" t="inlineStr">
+      <c r="E1588" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F1588" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G1588" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1588" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I1588" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1588" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1588" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1588" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G1588" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1588" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I1588" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1588" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K1588" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1588" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -85493,7 +85493,7 @@
       </c>
       <c r="F1636" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G1636" s="2" t="b">
@@ -85517,7 +85517,7 @@
       </c>
       <c r="L1636" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Missed_S-NonEvent</t>
         </is>
       </c>
     </row>
@@ -85574,314 +85574,314 @@
       </c>
     </row>
     <row r="1638">
-      <c r="A1638" t="n">
+      <c r="A1638" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1638" t="inlineStr">
+      <c r="B1638" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1638" t="inlineStr">
+      <c r="C1638" s="2" t="inlineStr">
         <is>
           <t>Warning:</t>
         </is>
       </c>
-      <c r="D1638" t="n">
+      <c r="D1638" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E1638" t="inlineStr">
+      <c r="E1638" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1638" t="inlineStr">
+      <c r="F1638" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1638" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1638" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1638" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1638" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1638" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1638" t="inlineStr">
+      <c r="G1638" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1638" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1638" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1638" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1638" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1638" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1639">
-      <c r="A1639" t="n">
+      <c r="A1639" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1639" t="inlineStr">
+      <c r="B1639" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1639" t="inlineStr">
+      <c r="C1639" s="2" t="inlineStr">
         <is>
           <t>Battery</t>
         </is>
       </c>
-      <c r="D1639" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1639" t="inlineStr">
+      <c r="D1639" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1639" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1639" t="inlineStr">
+      <c r="F1639" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1639" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1639" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1639" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1639" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1639" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1639" t="inlineStr">
+      <c r="G1639" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1639" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1639" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1639" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1639" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1639" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1640">
-      <c r="A1640" t="n">
+      <c r="A1640" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1640" t="inlineStr">
+      <c r="B1640" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1640" t="inlineStr">
+      <c r="C1640" s="2" t="inlineStr">
         <is>
           <t>Temperature</t>
         </is>
       </c>
-      <c r="D1640" t="n">
+      <c r="D1640" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E1640" t="inlineStr">
+      <c r="E1640" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1640" t="inlineStr">
+      <c r="F1640" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1640" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1640" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1640" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1640" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1640" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1640" t="inlineStr">
+      <c r="G1640" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1640" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1640" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1640" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1640" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1640" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1641">
-      <c r="A1641" t="n">
+      <c r="A1641" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1641" t="inlineStr">
+      <c r="B1641" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1641" t="inlineStr">
+      <c r="C1641" s="2" t="inlineStr">
         <is>
           <t>Below</t>
         </is>
       </c>
-      <c r="D1641" t="n">
+      <c r="D1641" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E1641" t="inlineStr">
+      <c r="E1641" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1641" t="inlineStr">
+      <c r="F1641" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1641" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1641" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1641" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1641" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1641" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1641" t="inlineStr">
+      <c r="G1641" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1641" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1641" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1641" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1641" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1641" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1642">
-      <c r="A1642" t="n">
+      <c r="A1642" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1642" t="inlineStr">
+      <c r="B1642" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1642" t="inlineStr">
+      <c r="C1642" s="2" t="inlineStr">
         <is>
           <t>15°C</t>
         </is>
       </c>
-      <c r="D1642" t="n">
+      <c r="D1642" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E1642" t="inlineStr">
+      <c r="E1642" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F1642" t="inlineStr">
+      <c r="F1642" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G1642" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1642" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1642" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1642" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1642" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1642" t="inlineStr">
+      <c r="G1642" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1642" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1642" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1642" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1642" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1642" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="1643">
-      <c r="A1643" t="n">
+      <c r="A1643" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="B1643" t="inlineStr">
+      <c r="B1643" s="2" t="inlineStr">
         <is>
           <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
-      <c r="C1643" t="inlineStr">
+      <c r="C1643" s="2" t="inlineStr">
         <is>
           <t>(59F)</t>
         </is>
       </c>
-      <c r="D1643" t="n">
+      <c r="D1643" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E1643" t="inlineStr">
+      <c r="E1643" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F1643" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G1643" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1643" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1643" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1643" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1643" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1643" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F1643" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G1643" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1643" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1643" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1643" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1643" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1643" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -86614,52 +86614,52 @@
       </c>
     </row>
     <row r="1658">
-      <c r="A1658" s="2" t="n">
+      <c r="A1658" t="n">
         <v>160</v>
       </c>
-      <c r="B1658" s="2" t="inlineStr">
+      <c r="B1658" t="inlineStr">
         <is>
           <t>Warning: Critically low battery . Please change the battery .</t>
         </is>
       </c>
-      <c r="C1658" s="2" t="inlineStr">
+      <c r="C1658" t="inlineStr">
         <is>
           <t>Warning:</t>
         </is>
       </c>
-      <c r="D1658" s="2" t="n">
+      <c r="D1658" t="n">
         <v>0</v>
       </c>
-      <c r="E1658" s="2" t="inlineStr">
+      <c r="E1658" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1658" s="2" t="inlineStr">
+      <c r="F1658" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1658" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1658" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1658" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J1658" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K1658" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L1658" s="2" t="inlineStr">
+      <c r="G1658" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1658" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1658" t="b">
+        <v>1</v>
+      </c>
+      <c r="J1658" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K1658" t="b">
+        <v>1</v>
+      </c>
+      <c r="L1658" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -86689,7 +86689,7 @@
       </c>
       <c r="F1659" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G1659" t="b">
@@ -86713,7 +86713,7 @@
       </c>
       <c r="L1659" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -87134,52 +87134,52 @@
       </c>
     </row>
     <row r="1668">
-      <c r="A1668" t="n">
+      <c r="A1668" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="B1668" t="inlineStr">
+      <c r="B1668" s="2" t="inlineStr">
         <is>
           <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
-      <c r="C1668" t="inlineStr">
+      <c r="C1668" s="2" t="inlineStr">
         <is>
           <t>Warning:</t>
         </is>
       </c>
-      <c r="D1668" t="n">
+      <c r="D1668" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E1668" t="inlineStr">
+      <c r="E1668" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F1668" t="inlineStr">
+      <c r="F1668" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G1668" t="b">
-        <v>1</v>
-      </c>
-      <c r="H1668" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I1668" t="b">
-        <v>1</v>
-      </c>
-      <c r="J1668" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K1668" t="b">
-        <v>1</v>
-      </c>
-      <c r="L1668" t="inlineStr">
+      <c r="G1668" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1668" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I1668" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J1668" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K1668" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L1668" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -87209,7 +87209,7 @@
       </c>
       <c r="F1669" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G1669" t="b">
@@ -87233,7 +87233,7 @@
       </c>
       <c r="L1669" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -89301,11 +89301,11 @@
         </is>
       </c>
       <c r="I1709" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1709" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1709" s="2" t="b">
@@ -89353,11 +89353,11 @@
         </is>
       </c>
       <c r="I1710" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1710" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1710" s="2" t="b">
@@ -89405,11 +89405,11 @@
         </is>
       </c>
       <c r="I1711" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1711" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1711" s="2" t="b">
@@ -89457,11 +89457,11 @@
         </is>
       </c>
       <c r="I1712" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1712" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1712" s="2" t="b">
@@ -89509,11 +89509,11 @@
         </is>
       </c>
       <c r="I1713" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1713" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1713" s="2" t="b">
@@ -89561,11 +89561,11 @@
         </is>
       </c>
       <c r="I1714" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1714" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1714" s="2" t="b">
@@ -89613,11 +89613,11 @@
         </is>
       </c>
       <c r="I1715" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1715" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1715" s="2" t="b">
@@ -89653,7 +89653,7 @@
       </c>
       <c r="F1716" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G1716" s="2" t="b">
@@ -89665,11 +89665,11 @@
         </is>
       </c>
       <c r="I1716" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1716" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1716" s="2" t="b">
@@ -89677,7 +89677,7 @@
       </c>
       <c r="L1716" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -89705,7 +89705,7 @@
       </c>
       <c r="F1717" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G1717" s="2" t="b">
@@ -89717,11 +89717,11 @@
         </is>
       </c>
       <c r="I1717" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1717" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1717" s="2" t="b">
@@ -89729,7 +89729,7 @@
       </c>
       <c r="L1717" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -89757,7 +89757,7 @@
       </c>
       <c r="F1718" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G1718" s="2" t="b">
@@ -89769,11 +89769,11 @@
         </is>
       </c>
       <c r="I1718" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1718" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K1718" s="2" t="b">
@@ -89781,7 +89781,7 @@
       </c>
       <c r="L1718" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
